--- a/test2.xlsx
+++ b/test2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -215,9 +215,6 @@
     <t>1993-11-20</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>数字业务</t>
   </si>
   <si>
@@ -269,9 +266,18 @@
     <t>1000-09-09</t>
   </si>
   <si>
+    <t>公司副总裁</t>
+  </si>
+  <si>
     <t>15205228836</t>
   </si>
   <si>
+    <t>huhoukun@qq.com</t>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+  </si>
+  <si>
     <t>余承东</t>
   </si>
   <si>
@@ -287,6 +293,27 @@
     <t>ycd@huawei.com</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>张涛</t>
+  </si>
+  <si>
+    <t>1996-09-28</t>
+  </si>
+  <si>
+    <t>游戏开发策划</t>
+  </si>
+  <si>
+    <t>18762345718</t>
+  </si>
+  <si>
+    <t>zhangtao@qq.com</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -311,10 +338,13 @@
     <t>复旦大学</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>张军</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>胡军</t>
   </si>
   <si>
     <t>1986-05-30</t>
@@ -374,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -750,31 +780,31 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>70</v>
-      </c>
-      <c r="M8" t="s">
-        <v>71</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
         <v>28</v>
@@ -791,40 +821,40 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
         <v>77</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
@@ -832,49 +862,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
         <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
@@ -882,22 +912,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -909,16 +939,16 @@
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
         <v>26</v>
@@ -932,49 +962,49 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
         <v>28</v>
@@ -982,7 +1012,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -991,42 +1021,142 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" t="s">
         <v>28</v>
       </c>
     </row>
